--- a/CucumberMarket_ResolverPlan.xlsx
+++ b/CucumberMarket_ResolverPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyh\Desktop\GitHub\cucumber-market-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A007CEEE-34B9-4CA5-AF4E-74BDD85AB614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24141B69-85D5-480D-9985-C8E7CB3F24CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,8 +149,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>setPostStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title, category, descriptsion, pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggleLike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLikedPostList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChatList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Chat]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Like]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Post]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatId, text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post, messages, deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post, messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네아로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{la</t>
+      <t>la</t>
     </r>
     <r>
       <rPr>
@@ -161,152 +277,35 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>titude, longitude}</t>
+      <t>titude, longitude</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>setPostStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title, category, descriptsion, pictures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggleLike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postId, sellerId, buyerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLikedPostList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getChatList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPostList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Chat]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Like]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Post]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatId, text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dealId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreeWithDeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>completeDeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude, longitude, distance, category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suggestDeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDealList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Deal]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancelDeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post, messages, deal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post, messages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller, buyer, post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPostDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDealDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adress, dateTime, latitude, longitude, sellerId, buyerId, postId, chatId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createChatRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitChatRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getChatRoom</t>
+    <t>distance, category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime, chatId</t>
+  </si>
+  <si>
+    <t>dateTime, chatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text, rating, postId, recipentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post(+isLiked)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat(+isReviewed)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -449,17 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -520,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,7 +545,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,12 +557,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -768,9 +753,259 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -805,6 +1040,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1025,9 +1267,259 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1062,6 +1554,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1282,9 +1781,259 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1319,6 +2068,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1362,7 +2118,7 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1373,149 +2129,139 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1526,8 +2272,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1535,13 +2279,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1576,17 +2313,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
@@ -1603,760 +2342,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2373,37 +2358,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBEEA8-2C52-4CA8-B05B-4C248B43AAAB}" name="표2" displayName="표2" ref="A2:F9" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="75" tableBorderDxfId="76" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBEEA8-2C52-4CA8-B05B-4C248B43AAAB}" name="표2" displayName="표2" ref="A2:F9" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="A2:F9" xr:uid="{17A602A5-9A21-4681-A528-79131CCFE6AA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9F84D24-49D1-4EE1-9667-ABDF2F7B94EC}" name="구분" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{A62D2F56-8273-41E9-B1BA-288C41A59426}" name="Type" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{B8445880-D574-4FC3-9442-0D9334C98D01}" name="Name" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{6C6F4BC3-8544-4B4C-B4E3-3F36D918EA76}" name="Relations" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{6EB28E50-9848-46B7-9E00-5A41AEFC3318}" name="Input" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{B0B80EE4-02B9-40C7-8B09-6F2143FCD18B}" name="Output" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{F9F84D24-49D1-4EE1-9667-ABDF2F7B94EC}" name="구분" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{A62D2F56-8273-41E9-B1BA-288C41A59426}" name="Type" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{B8445880-D574-4FC3-9442-0D9334C98D01}" name="Name" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{6C6F4BC3-8544-4B4C-B4E3-3F36D918EA76}" name="Relations" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{6EB28E50-9848-46B7-9E00-5A41AEFC3318}" name="Input" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{B0B80EE4-02B9-40C7-8B09-6F2143FCD18B}" name="Output" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{85D9BFB3-12C3-40D3-9FA0-91EDD98DD1CF}" name="표2_8" displayName="표2_8" ref="A2:F8" totalsRowShown="0" headerRowDxfId="55" dataDxfId="56" headerRowBorderDxfId="63" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{85D9BFB3-12C3-40D3-9FA0-91EDD98DD1CF}" name="표2_8" displayName="표2_8" ref="A2:F8" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A2:F8" xr:uid="{A725EB69-0915-4C71-97BB-2BB9982F9AEE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{977B2806-60DB-400C-AE6A-FBCC4FDA8C78}" name="구분" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{05C649D2-05F5-4AC3-9291-B88F835DC84D}" name="Type" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{FC577E6A-87C9-4D3B-8912-56EF97DA50BD}" name="Name" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{076D5DB0-C364-4FD9-A8C4-D8BA8832384F}" name="Relations" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{D1178EA4-1397-435E-8E72-E625BDA68C11}" name="Input" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{279BAA1A-D5A2-4173-9F65-B2D183963B30}" name="Output" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{977B2806-60DB-400C-AE6A-FBCC4FDA8C78}" name="구분" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{05C649D2-05F5-4AC3-9291-B88F835DC84D}" name="Type" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{FC577E6A-87C9-4D3B-8912-56EF97DA50BD}" name="Name" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{076D5DB0-C364-4FD9-A8C4-D8BA8832384F}" name="Relations" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{D1178EA4-1397-435E-8E72-E625BDA68C11}" name="Input" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{279BAA1A-D5A2-4173-9F65-B2D183963B30}" name="Output" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E0905117-FF5C-4048-A847-531AAC2B0BBC}" name="표2_812" displayName="표2_812" ref="A2:F4" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E0905117-FF5C-4048-A847-531AAC2B0BBC}" name="표2_812" displayName="표2_812" ref="A2:F4" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="A2:F4" xr:uid="{F1FFE013-CA81-49F8-8C64-E66158B1C419}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{97855814-3CE1-4186-AD31-142F28C99FE5}" name="구분" dataDxfId="49"/>
@@ -2418,7 +2403,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4EA047C8-1AE1-4415-B6AF-DD24A9FFF284}" name="표2_81214" displayName="표2_81214" ref="A2:F6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4EA047C8-1AE1-4415-B6AF-DD24A9FFF284}" name="표2_81214" displayName="표2_81214" ref="A2:F6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A2:F6" xr:uid="{0F308771-8971-4D80-AD93-1DC3E5B4D66F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BBCBE50F-D321-4FC7-8FC4-119E7664A75D}" name="구분" dataDxfId="38"/>
@@ -2433,7 +2418,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{34275BD8-BF4C-4134-A503-74621B37B5A5}" name="표2_8121415" displayName="표2_8121415" ref="A2:F3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{34275BD8-BF4C-4134-A503-74621B37B5A5}" name="표2_8121415" displayName="표2_8121415" ref="A2:F3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A2:F3" xr:uid="{3588BB90-F5C2-4D22-865B-A1A4B638DCB8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{84E110A1-6B06-4754-A05C-708E81CC5726}" name="구분" dataDxfId="27"/>
@@ -2448,8 +2433,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B3F372C7-597C-42C9-95E8-E3FAFC32E615}" name="표2_812141516" displayName="표2_812141516" ref="A2:F8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:F8" xr:uid="{B3C98353-292B-49FB-A816-F8DAF66B1147}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B3F372C7-597C-42C9-95E8-E3FAFC32E615}" name="표2_812141516" displayName="표2_812141516" ref="A2:F5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:F5" xr:uid="{B3C98353-292B-49FB-A816-F8DAF66B1147}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4E053090-B9E8-4CE2-93C7-5B4783D1A92A}" name="구분" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{1DCA0ACB-7FFE-4AD0-9C7B-3BFF816A51BE}" name="Type" dataDxfId="15"/>
@@ -2463,7 +2448,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{5B61106E-58CE-43E9-B1E5-1E244A0B1592}" name="표2_81217" displayName="표2_81217" ref="A2:F3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{5B61106E-58CE-43E9-B1E5-1E244A0B1592}" name="표2_81217" displayName="표2_81217" ref="A2:F3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A2:F3" xr:uid="{C6323D0F-3086-41DD-89F4-16564D4ED72E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F4F961A2-29B8-4DC9-A4E2-B10A9D190C58}" name="구분" dataDxfId="5"/>
@@ -2774,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A59A2-22CD-418B-B17A-2D2E07D57DB4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2824,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -2843,20 +2828,20 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2867,14 +2852,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,13 +2872,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -2905,13 +2892,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -2925,38 +2912,39 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2975,7 +2963,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3021,19 +3009,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
+      <c r="E3" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3044,16 +3032,16 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>51</v>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3061,19 +3049,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3090,7 +3078,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -3104,13 +3092,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -3124,25 +3112,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O14" s="2"/>
@@ -3164,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF523BC-FEA9-44D5-B26B-0285E7C53D84}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3180,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3213,19 +3201,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3233,34 +3221,73 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O10" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3279,7 +3306,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3287,12 +3314,12 @@
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3325,19 +3352,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3348,16 +3375,16 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3365,19 +3392,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3388,25 +3415,25 @@
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O12" s="2"/>
@@ -3431,7 +3458,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B11" sqref="B11:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3444,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3480,25 +3507,25 @@
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O9" s="2"/>
@@ -3520,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD3F9F-CB7C-4210-BEC5-8D9906D740F0}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3536,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3572,7 +3599,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
@@ -3589,19 +3616,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3609,94 +3636,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O14" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O16" s="2"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3715,7 +3682,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3770,19 +3737,19 @@
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O9" s="2"/>

--- a/CucumberMarket_ResolverPlan.xlsx
+++ b/CucumberMarket_ResolverPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyh\Desktop\GitHub\cucumber-market-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24141B69-85D5-480D-9985-C8E7CB3F24CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1F816-53D6-4793-9B9C-7D4DBD2DDF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
+    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12576" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getProfile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,12 +300,15 @@
     <t>Chat(+isReviewed)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>getUserProfile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +348,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF82AAFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +558,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2358,8 +2362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBEEA8-2C52-4CA8-B05B-4C248B43AAAB}" name="표2" displayName="표2" ref="A2:F9" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
-  <autoFilter ref="A2:F9" xr:uid="{17A602A5-9A21-4681-A528-79131CCFE6AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBEEA8-2C52-4CA8-B05B-4C248B43AAAB}" name="표2" displayName="표2" ref="A2:F8" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+  <autoFilter ref="A2:F8" xr:uid="{17A602A5-9A21-4681-A528-79131CCFE6AA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F9F84D24-49D1-4EE1-9667-ABDF2F7B94EC}" name="구분" dataDxfId="71"/>
     <tableColumn id="2" xr3:uid="{A62D2F56-8273-41E9-B1BA-288C41A59426}" name="Type" dataDxfId="70"/>
@@ -2759,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A59A2-22CD-418B-B17A-2D2E07D57DB4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2789,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2809,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -2829,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1</v>
@@ -2849,13 +2853,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -2869,19 +2873,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2889,19 +2893,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2909,42 +2913,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2989,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3009,19 +2993,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3029,19 +3013,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3049,19 +3033,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3069,19 +3053,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3089,19 +3073,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3109,19 +3093,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3152,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3181,19 +3165,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3201,19 +3185,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3221,19 +3205,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3332,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3352,19 +3336,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3372,19 +3356,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3392,19 +3376,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,19 +3396,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,7 +3455,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3484,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3504,19 +3488,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3547,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3576,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3596,19 +3580,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3616,19 +3600,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3636,19 +3620,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3679,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3708,19 +3692,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3728,19 +3712,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">

--- a/CucumberMarket_ResolverPlan.xlsx
+++ b/CucumberMarket_ResolverPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyh\Desktop\GitHub\cucumber-market-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1F816-53D6-4793-9B9C-7D4DBD2DDF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B779D-94D3-4CEC-9176-79FB4150106F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12576" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
+    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>editAvatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editUserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,13 +298,14 @@
   </si>
   <si>
     <t>getUserProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,12 +345,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF82AAFF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,9 +549,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2362,8 +2350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBEEA8-2C52-4CA8-B05B-4C248B43AAAB}" name="표2" displayName="표2" ref="A2:F8" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
-  <autoFilter ref="A2:F8" xr:uid="{17A602A5-9A21-4681-A528-79131CCFE6AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBEEA8-2C52-4CA8-B05B-4C248B43AAAB}" name="표2" displayName="표2" ref="A2:F7" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+  <autoFilter ref="A2:F7" xr:uid="{17A602A5-9A21-4681-A528-79131CCFE6AA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F9F84D24-49D1-4EE1-9667-ABDF2F7B94EC}" name="구분" dataDxfId="71"/>
     <tableColumn id="2" xr3:uid="{A62D2F56-8273-41E9-B1BA-288C41A59426}" name="Type" dataDxfId="70"/>
@@ -2763,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A59A2-22CD-418B-B17A-2D2E07D57DB4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2793,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,16 +2801,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -2833,16 +2821,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1</v>
@@ -2853,16 +2841,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>3</v>
@@ -2873,19 +2861,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2893,42 +2881,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2946,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9F4F75-3170-44E2-9B3A-E2D927C5BCE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2973,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2993,19 +2961,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3013,19 +2981,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3033,19 +3001,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3053,19 +3021,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3073,19 +3041,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3093,19 +3061,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3120,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3165,19 +3133,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3185,19 +3153,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3205,19 +3173,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3316,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3336,19 +3304,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3356,19 +3324,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3376,19 +3344,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3396,19 +3364,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3468,19 +3436,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3488,19 +3456,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3515,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3560,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3580,19 +3548,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3600,19 +3568,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3620,19 +3588,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,7 +3647,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3692,19 +3660,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3712,19 +3680,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">

--- a/CucumberMarket_ResolverPlan.xlsx
+++ b/CucumberMarket_ResolverPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyh\Desktop\GitHub\cucumber-market-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B779D-94D3-4CEC-9176-79FB4150106F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F09200-7DF1-40F9-9751-45A0D022A19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getLikedPostList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getChatList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +294,10 @@
   </si>
   <si>
     <t>getUserProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLikedPosts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2754,7 +2754,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2810,7 +2810,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -2824,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>25</v>
@@ -2890,7 +2890,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>11</v>
@@ -2914,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9F4F75-3170-44E2-9B3A-E2D927C5BCE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2964,16 +2964,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2984,7 +2984,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>24</v>
@@ -2993,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3156,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -3165,7 +3165,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3247,8 +3247,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3257,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19302ED-4C72-4653-9698-E02F0B2AF247}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3307,16 +3308,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3327,16 +3328,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3347,7 +3348,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>24</v>
@@ -3367,13 +3368,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>11</v>
@@ -3410,7 +3411,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3423,7 +3424,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3459,13 +3460,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
@@ -3502,7 +3503,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3515,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3551,13 +3552,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
@@ -3571,13 +3572,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
@@ -3591,13 +3592,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
@@ -3689,7 +3690,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>

--- a/CucumberMarket_ResolverPlan.xlsx
+++ b/CucumberMarket_ResolverPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyh\Desktop\GitHub\cucumber-market-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F09200-7DF1-40F9-9751-45A0D022A19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F6CD9C-7BAF-463E-A28E-FB014515B534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
+    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BC42B4B1-B66D-4EFB-8274-F6B84C45D884}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,14 +222,6 @@
   </si>
   <si>
     <t>getPostDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createChatRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitChatRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enterChatRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dateTime, chatId</t>
   </si>
   <si>
@@ -298,6 +286,18 @@
   </si>
   <si>
     <t>getLikedPosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChatRoomInList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChatRoomInPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2395,8 +2395,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4EA047C8-1AE1-4415-B6AF-DD24A9FFF284}" name="표2_81214" displayName="표2_81214" ref="A2:F6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
-  <autoFilter ref="A2:F6" xr:uid="{0F308771-8971-4D80-AD93-1DC3E5B4D66F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4EA047C8-1AE1-4415-B6AF-DD24A9FFF284}" name="표2_81214" displayName="표2_81214" ref="A2:F5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+  <autoFilter ref="A2:F5" xr:uid="{0F308771-8971-4D80-AD93-1DC3E5B4D66F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BBCBE50F-D321-4FC7-8FC4-119E7664A75D}" name="구분" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{156CC640-9210-4F51-8554-9F4E5514AB0C}" name="Type" dataDxfId="37"/>
@@ -2810,7 +2810,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -2824,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>25</v>
@@ -2890,7 +2890,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>11</v>
@@ -2970,7 +2970,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>38</v>
@@ -2993,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -3256,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19302ED-4C72-4653-9698-E02F0B2AF247}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3314,85 +3314,61 @@
         <v>46</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O12" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O14" s="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3400,8 +3376,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3552,13 +3529,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
@@ -3572,13 +3549,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
@@ -3690,7 +3667,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
